--- a/GroupsandSubgroups.xlsx
+++ b/GroupsandSubgroups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -235,16 +235,13 @@
     <t xml:space="preserve">ECE4</t>
   </si>
   <si>
-    <t xml:space="preserve">ECE41(30),ECE42(30),ECE43(20)</t>
+    <t xml:space="preserve">ECE41(40),ECE42(40)</t>
   </si>
   <si>
     <t xml:space="preserve">ECO4</t>
   </si>
   <si>
     <t xml:space="preserve">EEE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE41(29),EEE42(28)</t>
   </si>
   <si>
     <t xml:space="preserve">ENG4</t>
@@ -299,24 +296,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +347,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,14 +363,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -395,66 +372,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -465,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,298 +425,239 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="0" t="str">
         <f aca="false">RIGHT(C2,1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="0" t="str">
         <f aca="false">RIGHT(C3,1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="0" t="str">
         <f aca="false">RIGHT(C4,1)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="0" t="str">
         <f aca="false">RIGHT(C5,1)</f>
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="0" t="str">
         <f aca="false">RIGHT(C6,1)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="0" t="str">
         <f aca="false">RIGHT(C7,1)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="0" t="str">
         <f aca="false">RIGHT(C8,1)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="0" t="str">
         <f aca="false">RIGHT(C9,1)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="0" t="str">
         <f aca="false">RIGHT(C10,1)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="0" t="str">
         <f aca="false">RIGHT(C11,1)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="0" t="str">
         <f aca="false">RIGHT(C12,1)</f>
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="0" t="str">
         <f aca="false">RIGHT(C13,1)</f>
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="0" t="str">
         <f aca="false">RIGHT(C14,1)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="0" t="str">
         <f aca="false">RIGHT(C15,1)</f>
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="0" t="str">
         <f aca="false">RIGHT(C16,1)</f>
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="0" t="str">
         <f aca="false">RIGHT(C17,1)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="str">
@@ -1000,282 +858,205 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="str">
+      <c r="A34" s="0" t="str">
         <f aca="false">RIGHT(C34,1)</f>
         <v>3</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="str">
+      <c r="A35" s="0" t="str">
         <f aca="false">RIGHT(C35,1)</f>
         <v>3</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="str">
+      <c r="A36" s="0" t="str">
         <f aca="false">RIGHT(C36,1)</f>
         <v>3</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="str">
+      <c r="A37" s="0" t="str">
         <f aca="false">RIGHT(C37,1)</f>
         <v>3</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="str">
+      <c r="A38" s="0" t="str">
         <f aca="false">RIGHT(C38,1)</f>
         <v>3</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="str">
+      <c r="A39" s="0" t="str">
         <f aca="false">RIGHT(C39,1)</f>
         <v>3</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="str">
+      <c r="A40" s="0" t="str">
         <f aca="false">RIGHT(C40,1)</f>
         <v>3</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="str">
+      <c r="A41" s="0" t="str">
         <f aca="false">RIGHT(C41,1)</f>
         <v>3</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="str">
+      <c r="A42" s="0" t="str">
         <f aca="false">RIGHT(C42,1)</f>
         <v>3</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="str">
+      <c r="A43" s="0" t="str">
         <f aca="false">RIGHT(C43,1)</f>
         <v>3</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="str">
+      <c r="A44" s="0" t="str">
         <f aca="false">RIGHT(C44,1)</f>
         <v>3</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="str">
+      <c r="A45" s="0" t="str">
         <f aca="false">RIGHT(C45,1)</f>
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="str">
+      <c r="A46" s="0" t="str">
         <f aca="false">RIGHT(C46,1)</f>
         <v>3</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="str">
+      <c r="A47" s="0" t="str">
         <f aca="false">RIGHT(C47,1)</f>
         <v>3</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="str">
+      <c r="A48" s="0" t="str">
         <f aca="false">RIGHT(C48,1)</f>
         <v>3</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="str">
+      <c r="A49" s="0" t="str">
         <f aca="false">RIGHT(C49,1)</f>
         <v>3</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="str">
@@ -1387,9 +1168,6 @@
       <c r="C58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="str">
@@ -1400,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1202,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,10 +1214,10 @@
         <v>82</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
